--- a/database/AN_pp/expdata/2002.xlsx
+++ b/database/AN_pp/expdata/2002.xlsx
@@ -14,27 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>xF</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>stat_err_u</t>
+  </si>
+  <si>
+    <t>sys_err_u</t>
+  </si>
+  <si>
+    <t>pT</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>hadron</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>pi0</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
     <t>AN</t>
-  </si>
-  <si>
-    <t>stat_err</t>
-  </si>
-  <si>
-    <t>sys_err</t>
-  </si>
-  <si>
-    <t>pT</t>
-  </si>
-  <si>
-    <t>hadron</t>
-  </si>
-  <si>
-    <t>pi0</t>
   </si>
 </sst>
 </file>
@@ -392,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +438,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0.415669</v>
       </c>
@@ -434,11 +467,23 @@
       <c r="E2">
         <v>2.1</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>0.4656</v>
       </c>
@@ -454,11 +499,23 @@
       <c r="E3">
         <v>2.35</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>0.5155310000000001</v>
       </c>
@@ -474,11 +531,23 @@
       <c r="E4">
         <v>2.6</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>0.565395</v>
       </c>
@@ -494,11 +563,23 @@
       <c r="E5">
         <v>2.85</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>0.615399</v>
       </c>
@@ -514,11 +595,23 @@
       <c r="E6">
         <v>3.11</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>0.6646310000000001</v>
       </c>
@@ -534,11 +627,23 @@
       <c r="E7">
         <v>3.35</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>0.714242</v>
       </c>
@@ -554,8 +659,20 @@
       <c r="E8">
         <v>3.61</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
